--- a/Data/EC/NIT-9008452119.xlsx
+++ b/Data/EC/NIT-9008452119.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCB83BC-FCD6-449F-B2F9-70BA538526CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A064E0-E958-47BD-93CF-EFF0E16248F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363167C1-11E5-4AF1-BBD3-C0EE1E9B4D10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE3B0588-2120-4759-9622-A44E1B9F02F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,190 +71,190 @@
     <t>YEDXANDER ENRIQUE PATERNINA MARTINEZ</t>
   </si>
   <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
     <t>45468148</t>
   </si>
   <si>
     <t>ORIANA A CAICEDO VERGARA</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1123409946</t>
+  </si>
+  <si>
+    <t>MARIA DE JESUS CASTAÑEDA DEL PRADO</t>
+  </si>
+  <si>
+    <t>1102846068</t>
+  </si>
+  <si>
+    <t>JAVIER ENRIQUE ARRIETA PINILLA</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1123409946</t>
-  </si>
-  <si>
-    <t>MARIA DE JESUS CASTAÑEDA DEL PRADO</t>
-  </si>
-  <si>
-    <t>1102846068</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE ARRIETA PINILLA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,9 +353,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -373,156 +523,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -568,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4ADFAA2-3007-DBEF-4D73-3671460FE662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45CD3DD-3CB3-0524-2F53-AE34D2D4767D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C21285B-97E3-499E-B35F-220C12365368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54958EF8-54E4-4DB0-9C0F-2EBB90199A6A}">
   <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -2278,7 +2278,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>241280</v>
+        <v>603200</v>
       </c>
       <c r="G63" s="18">
         <v>15080000</v>
@@ -2292,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
-        <v>603200</v>
+        <v>180000</v>
       </c>
       <c r="G64" s="18">
-        <v>15080000</v>
+        <v>4500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>603200</v>
+        <v>120000</v>
       </c>
       <c r="G65" s="18">
-        <v>15080000</v>
+        <v>3000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2344,7 +2344,7 @@
         <v>59</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F66" s="18">
         <v>603200</v>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
-        <v>603200</v>
+        <v>180000</v>
       </c>
       <c r="G67" s="18">
-        <v>15080000</v>
+        <v>4500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>603200</v>
+        <v>120000</v>
       </c>
       <c r="G68" s="18">
-        <v>15080000</v>
+        <v>3000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2430,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>603200</v>
+        <v>180000</v>
       </c>
       <c r="G70" s="18">
-        <v>15080000</v>
+        <v>4500000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>603200</v>
+        <v>120000</v>
       </c>
       <c r="G71" s="18">
-        <v>15080000</v>
+        <v>3000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2476,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>180000</v>
+        <v>603200</v>
       </c>
       <c r="G72" s="18">
-        <v>4500000</v>
+        <v>15080000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>180000</v>
+        <v>603200</v>
       </c>
       <c r="G73" s="18">
-        <v>4500000</v>
+        <v>15080000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,19 +2522,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F74" s="18">
-        <v>180000</v>
+        <v>603200</v>
       </c>
       <c r="G74" s="18">
-        <v>4500000</v>
+        <v>15080000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>120000</v>
+        <v>603200</v>
       </c>
       <c r="G75" s="18">
-        <v>3000000</v>
+        <v>15080000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,19 +2568,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="18">
-        <v>120000</v>
+        <v>603200</v>
       </c>
       <c r="G76" s="18">
-        <v>3000000</v>
+        <v>15080000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2591,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D77" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="24">
-        <v>120000</v>
+        <v>241280</v>
       </c>
       <c r="G77" s="24">
-        <v>3000000</v>
+        <v>15080000</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
